--- a/pred_ohlcv/54_21/2020-01-16 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TMTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-9914932.181697534</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9931713.481697535</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9931713.481697535</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-9931713.481697535</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9720607.725960759</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-9482684.08206076</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9370447.25606076</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9150474.780060761</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8750936.12156076</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8513924.10956076</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8513924.10956076</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8432608.30256076</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-8296246.05156076</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-8482467.356560759</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-8590904.935560759</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8352926.452560759</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8590939.465560758</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-8573060.799560759</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-8495271.571560759</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-8376498.041560759</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8172569.957560759</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-8104229.043560759</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-8491908.453160759</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-8730695.724160759</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-8837726.348160759</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-8598062.104160758</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-8358833.648160757</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-8119339.534160757</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8359379.624160757</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8120376.618160757</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7881608.775160757</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7847358.726160757</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-8029504.385160757</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-7789559.482160757</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8471320.515760757</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8176088.456760757</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-8284698.692760756</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-8335127.296360756</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-8176519.516360756</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-8243185.878760756</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8177290.771760756</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-8032460.736760756</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8242642.173760756</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-8207693.804760756</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-8289615.056760756</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-8139379.819760757</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-8131182.973760757</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-8062664.601760756</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-7939528.774760757</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-7737629.671960756</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-7691291.380960756</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7671982.254460756</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7517593.432660756</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7798757.337460755</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7832431.474060755</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7730680.835060755</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7553417.915060755</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7559256.273960755</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7719308.351960755</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7481243.996960755</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7572752.301460755</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-7712806.426460755</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8290021.351560755</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8348422.327860755</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8136324.984860755</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7896530.859860755</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8136470.572860755</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7896314.872860755</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-7853648.372860755</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-7758897.798860755</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-7948975.674860755</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-8486215.524460755</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8236406.449460755</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-8447490.477460755</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-8207937.489460755</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7967422.401460756</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8025747.593460755</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-7920008.009460756</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8069266.646460756</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-8264534.153560756</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8175380.409560756</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8019074.420560756</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-7796095.951560756</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-7780072.315560756</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-7693630.259560756</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-7825577.987560757</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8024899.553560756</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-8002061.141560757</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7942463.316560756</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-8043688.129560756</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-7964876.084560757</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-7857031.687560757</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7848335.256560757</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7878002.863560757</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7780010.950560757</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-7639320.817560757</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7640119.617560756</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-7501374.385560757</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-7498599.361560756</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-7457941.985560756</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-7541341.356560756</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-7701173.383560756</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-7692151.390560756</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-7602485.936560757</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-7619238.282560756</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7875972.523960756</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-7984444.082960756</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8082565.883960756</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-8215263.440960757</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-10938721.41776076</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-10918483.39976076</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-10853222.86876076</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-10853222.86876076</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10911557.12596076</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-10964081.42396076</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-11045692.50096076</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-11095525.50096076</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-11985667.85326076</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-11974614.34626076</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-15053391.38386076</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-15057607.81086076</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-15063613.81286076</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-15274846.96546076</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-15272687.80546076</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-15276920.51346076</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-15276599.39346076</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-15280667.06146076</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-15274956.87346076</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-15278721.70046076</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-15279493.53246076</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-15418524.61616076</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-15422265.71716076</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-15475583.84416076</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-15478398.20206076</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-15471821.36006077</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-15473440.37006077</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-15470133.92206077</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-15470005.55606076</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-15469179.49106077</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-15738098.04336077</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-15796496.01266077</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-15897135.48986077</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-15899915.93786077</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-15942253.45346077</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-16238646.86176077</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-34274651.05418313</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-34924651.05418313</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-34459969.98188312</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-34516414.33778312</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-34662742.24498312</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-34738852.78668312</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-34925617.21148312</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-39845462.94450092</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-39753617.60900091</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-38985785.38654104</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-37300380.69000091</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-37294085.26100092</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-37642781.36960092</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-37692046.52890092</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-37718001.57590092</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-37713530.10678253</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-37717600.18878253</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-37479169.18410092</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-37484335.27110092</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-37486547.16461928</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-37484133.82261928</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-37480165.85361928</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-37449402.87331928</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-66255475.53612293</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-66130154.59312293</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-66055826.70152293</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-66032476.89752293</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-65974821.91958673</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-64691895.14882534</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-64949948.66382534</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-65209434.64632534</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-65468427.62982534</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-65212764.97046527</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-65220797.41806526</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-65326952.64606526</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-64876286.64606526</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-65056274.48306526</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 TMTG ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-8495271.571560759</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-8376498.041560759</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8172569.957560759</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-8104229.043560759</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-8254366.759160759</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-8598062.104160758</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-8358833.648160757</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-8119339.534160757</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-8359379.624160757</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-8120376.618160757</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7881608.775160757</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-7847358.726160757</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-8029504.385160757</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-7789559.482160757</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-8084720.159860757</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-8471320.515760757</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-8232159.501760757</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-8176088.456760757</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-8284698.692760756</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-8335127.296360756</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-8176519.516360756</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-8243185.878760756</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8177290.771760756</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-8032460.736760756</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-8242642.173760756</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-8207693.804760756</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-8289615.056760756</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-8139379.819760757</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-8131182.973760757</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-8062664.601760756</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-7939528.774760757</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-7737629.671960756</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-7691291.380960756</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-7671982.254460756</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7517593.432660756</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-7755846.294660755</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-7753777.778460755</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7798757.337460755</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7832431.474060755</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7730680.835060755</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7553417.915060755</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-7559256.273960755</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-7719308.351960755</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-7481243.996960755</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-7499008.448560755</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7531943.466560755</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7572752.301460755</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-7712806.426460755</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-8290021.351560755</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-8348422.327860755</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-8174081.907860755</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-8136324.984860755</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7896530.859860755</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-8136470.572860755</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7896314.872860755</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-7853648.372860755</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-7758897.798860755</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-7948975.674860755</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8188764.671860755</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-8486215.524460755</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8246602.362460755</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8236406.449460755</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-8447490.477460755</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-8207937.489460755</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-7967422.401460756</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8025747.593460755</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-7920008.009460756</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8069266.646460756</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-8264534.153560756</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8175380.409560756</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8019074.420560756</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-7796095.951560756</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-7780072.315560756</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-7693630.259560756</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-7825577.987560757</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8024899.553560756</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-8002061.141560757</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7942463.316560756</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-8043688.129560756</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-8044114.641560757</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-7964876.084560757</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-7857031.687560757</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-7848335.256560757</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-7878002.863560757</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-7780010.950560757</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-7639320.817560757</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7640119.617560756</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-7614736.905560756</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-7501374.385560757</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-7498599.361560756</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-7457941.985560756</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-7541341.356560756</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-7701173.383560756</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-7692151.390560756</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-7733961.924560756</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-7602485.936560757</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-7619238.282560756</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-7875972.523960756</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-7928973.707960756</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-7984444.082960756</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8082565.883960756</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-8215263.440960757</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-10938721.41776076</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-15057607.81086076</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-15390697.67356076</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-15274846.96546076</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-15272687.80546076</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-15276920.51346076</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-15276599.39346076</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-15280667.06146076</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-15274956.87346076</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-15269683.72846076</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-15278721.70046076</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-15279493.53246076</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-15418524.61616076</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-15422265.71716076</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-15475583.84416076</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-15471643.06316076</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-15476962.67306077</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-15473440.37006077</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-15470133.92206077</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-15470005.55606076</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-15469179.49106077</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-15743280.90336077</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-34274651.05418313</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-34924651.05418313</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-34459969.98188312</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-34516414.33778312</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-34662742.24498312</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-34738852.78668312</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-34925617.21148312</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-39845462.94450092</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-39753617.60900091</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-38985785.38654104</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-37300380.69000091</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-37294085.26100092</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-37601332.32150092</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-37642781.36960092</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-37692046.52890092</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-37718001.57590092</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-37713530.10678253</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-37717600.18878253</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-37479169.18410092</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-37484335.27110092</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-37486547.16461928</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-37484133.82261928</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-37480165.85361928</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-37449402.87331928</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-66366629.14632292</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-66324891.20012292</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-66255475.53612293</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-66228208.11112293</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-66130154.59312293</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-66055826.70152293</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-66032476.89752293</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-65974821.91958673</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-66106471.27258673</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-64691895.14882534</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-64949948.66382534</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-65209434.64632534</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-65468427.62982534</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-65213652.97046527</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-65212764.97046527</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-65220797.41806526</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-65326952.64606526</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-64876286.64606526</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-65056274.48306526</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
